--- a/CarService/src/main/resources/serviceableCars.xlsx
+++ b/CarService/src/main/resources/serviceableCars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\Szakdolgozat\CarService\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\Szakdolgozat\CarService\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2702BDD0-F670-4D51-899D-0ED61BF0F200}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458AA17F-13E5-41A1-B41D-1DFEC6A30DC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15390" xr2:uid="{A27CEF9F-1C5D-4C90-8089-7922C1C66097}"/>
+    <workbookView xWindow="-2835" yWindow="6990" windowWidth="28800" windowHeight="11385" xr2:uid="{A27CEF9F-1C5D-4C90-8089-7922C1C66097}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="14">
   <si>
     <t>Brand</t>
   </si>
@@ -42,260 +42,50 @@
     <t>Audi</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>Prius</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>e36</t>
-  </si>
-  <si>
-    <t>e46</t>
-  </si>
-  <si>
-    <t>1.9 pd tdi</t>
-  </si>
-  <si>
-    <t>2.0 tfsi</t>
-  </si>
-  <si>
-    <t>2005-</t>
-  </si>
-  <si>
-    <t>1.6-</t>
-  </si>
-  <si>
-    <t>2004-</t>
-  </si>
-  <si>
-    <t>2003-</t>
-  </si>
-  <si>
-    <t>2002-</t>
-  </si>
-  <si>
-    <t>23-</t>
-  </si>
-  <si>
-    <t>2001-</t>
-  </si>
-  <si>
-    <t>32-</t>
-  </si>
-  <si>
-    <t>2000-</t>
-  </si>
-  <si>
-    <t>34-</t>
-  </si>
-  <si>
-    <t>Buick</t>
-  </si>
-  <si>
-    <t>Cadillac</t>
-  </si>
-  <si>
-    <t>Chevrolet</t>
-  </si>
-  <si>
-    <t>Chrysler</t>
-  </si>
-  <si>
-    <t>Dodge</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>GMC</t>
-  </si>
-  <si>
-    <t>Jeep</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Lingenfelter</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Saleen</t>
-  </si>
-  <si>
-    <t>Shelby</t>
-  </si>
-  <si>
-    <t>Tesla</t>
-  </si>
-  <si>
-    <t>Acura</t>
-  </si>
-  <si>
-    <t>Daihatsu</t>
-  </si>
-  <si>
-    <t>Dome</t>
-  </si>
-  <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>Infiniti</t>
-  </si>
-  <si>
-    <t>Isuzu</t>
-  </si>
-  <si>
-    <t>Lexus</t>
-  </si>
-  <si>
-    <t>Mazda</t>
-  </si>
-  <si>
-    <t>Mitsubishi</t>
-  </si>
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>Subaru</t>
-  </si>
-  <si>
-    <t>Suzuki</t>
-  </si>
-  <si>
-    <t>Gumpert</t>
-  </si>
-  <si>
-    <t>Isdera</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz</t>
-  </si>
-  <si>
-    <t>Opel</t>
-  </si>
-  <si>
-    <t>Smart</t>
-  </si>
-  <si>
-    <t>Volkswagen</t>
-  </si>
-  <si>
-    <t>Alfa Romeo</t>
-  </si>
-  <si>
-    <t>Ferrari</t>
-  </si>
-  <si>
-    <t>Fiat</t>
-  </si>
-  <si>
-    <t>Lamborghini</t>
-  </si>
-  <si>
-    <t>Lancia</t>
-  </si>
-  <si>
-    <t>Maserati</t>
-  </si>
-  <si>
-    <t>Pagani</t>
-  </si>
-  <si>
-    <t>Pininfarina</t>
-  </si>
-  <si>
-    <t>Qvale</t>
-  </si>
-  <si>
-    <t>Aston Martin</t>
-  </si>
-  <si>
-    <t>Bentley</t>
-  </si>
-  <si>
-    <t>Caterham cars</t>
-  </si>
-  <si>
-    <t>Jaguar</t>
-  </si>
-  <si>
-    <t>Jensen</t>
-  </si>
-  <si>
-    <t>Land Rover</t>
-  </si>
-  <si>
-    <t>Lightning</t>
-  </si>
-  <si>
-    <t>Lister</t>
-  </si>
-  <si>
-    <t>Lotus</t>
-  </si>
-  <si>
-    <t>Mini</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Rolls-Royce</t>
-  </si>
-  <si>
-    <t>TVR</t>
-  </si>
-  <si>
-    <t>Vauxhall</t>
-  </si>
-  <si>
-    <t>Bugatti</t>
-  </si>
-  <si>
-    <t>Citroen</t>
-  </si>
-  <si>
-    <t>Heuliez</t>
-  </si>
-  <si>
-    <t>Mega</t>
-  </si>
-  <si>
-    <t>Peugeot</t>
-  </si>
-  <si>
-    <t>Renault</t>
+    <t>2.0D</t>
+  </si>
+  <si>
+    <t>Quatro</t>
+  </si>
+  <si>
+    <t>1980-1991</t>
+  </si>
+  <si>
+    <t>1991-1994</t>
+  </si>
+  <si>
+    <t>2.5 TDI</t>
+  </si>
+  <si>
+    <t>2.4 TDI</t>
+  </si>
+  <si>
+    <t>2.4 D</t>
+  </si>
+  <si>
+    <t>2.0 D</t>
+  </si>
+  <si>
+    <t>1.8 E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -321,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -639,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9EF92B-B4B0-4C67-900B-BCB86A8A5B11}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,25 +458,25 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -695,369 +486,527 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4">
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>2.6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>2.8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>